--- a/biology/Histoire de la zoologie et de la botanique/Hermann_Friedrich_Bonorden/Hermann_Friedrich_Bonorden.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_Friedrich_Bonorden/Hermann_Friedrich_Bonorden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Friedrich Bonorden (28 août 1801 - 19 mai 1884) était un médecin et mycologue prussien.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,14 +551,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bonorden, H.F. Classification der gesammten Krankheiten des Menschen nach ihrem Wesen, nebst Erläuterungen
 Bonorden, H.F. (1834). Die Syphilis, pathologisch-diagnostisch und therapeutisch
 Bonorden, H.F. (1838). Neue und sichere Methoden die verschiedenen Formen des Nervenfiebers zu heilen
 H.F. Bonorden, Handbuch der Allgemeinen Mykologie als Anleitung zum Studium Derselben, nebst Speciellen Beiträgen zur Vervollkommnung dieses Zweiges der Naturkunde. i-xii, 1-336., Stuttgart, E. Schweizerbart, 1851 (DOI 10.3931/e-rara-17786, lire en ligne).
 Bonorden, H.F. (1853). Beiträge zur Mykologie. Botanische Zeitung 11: 281-296.
-Bonorden, H.F. (1857). Die Gattungen Bovista, Lycoperdon und ihr Bau [cont.]. Botanische Zeitung 15: 609-[611].
+Bonorden, H.F. (1857). Die Gattungen Bovista, Lycoperdon und ihr Bau [cont.]. Botanische Zeitung 15: 609-.
 Bonorden, H.F. (1864). Abhandlungen aus dem Gebiete der Mykologie 1: viii, 168 pp., 2 tabs. Germany, Halle.</t>
         </is>
       </c>
